--- a/KiCad v0.3 (controller + battery)/Steps.xlsx
+++ b/KiCad v0.3 (controller + battery)/Steps.xlsx
@@ -1,137 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pyka\Documents\Projects\Sonar Watch\KiCad v0.3 (controller + battery)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pyka\Documents\GitHub\Sonar-Watch\KiCad v0.3 (controller + battery)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54C61ED-ECF7-4328-A410-6531195F4D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4D1D52-AC5F-4326-8CD8-DC7CAA4F77B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
   <si>
     <t>STM32G431KBT6 - Figure out pins:</t>
   </si>
   <si>
-    <t>Pin 1</t>
-  </si>
-  <si>
-    <t>Pin 2</t>
-  </si>
-  <si>
-    <t>Pin 3</t>
-  </si>
-  <si>
-    <t>Pin 4</t>
-  </si>
-  <si>
-    <t>Pin 5</t>
-  </si>
-  <si>
-    <t>Pin 6</t>
-  </si>
-  <si>
     <t>STEPS</t>
   </si>
   <si>
-    <t>Pin 7</t>
-  </si>
-  <si>
-    <t>Pin 8</t>
-  </si>
-  <si>
-    <t>Pin 9</t>
-  </si>
-  <si>
-    <t>Pin 10</t>
-  </si>
-  <si>
-    <t>Pin 11</t>
-  </si>
-  <si>
-    <t>Pin 12</t>
-  </si>
-  <si>
-    <t>Pin 13</t>
-  </si>
-  <si>
-    <t>Pin 14</t>
-  </si>
-  <si>
-    <t>Pin 15</t>
-  </si>
-  <si>
-    <t>Pin 16</t>
-  </si>
-  <si>
-    <t>Pin 17</t>
-  </si>
-  <si>
-    <t>Pin 18</t>
-  </si>
-  <si>
-    <t>Pin 19</t>
-  </si>
-  <si>
-    <t>Pin 20</t>
-  </si>
-  <si>
-    <t>Pin 21</t>
-  </si>
-  <si>
-    <t>Pin 22</t>
-  </si>
-  <si>
-    <t>Pin 23</t>
-  </si>
-  <si>
-    <t>Pin 24</t>
-  </si>
-  <si>
-    <t>Pin 25</t>
-  </si>
-  <si>
-    <t>Pin 26</t>
-  </si>
-  <si>
-    <t>Pin 27</t>
-  </si>
-  <si>
-    <t>Pin 28</t>
-  </si>
-  <si>
-    <t>Pin 29</t>
-  </si>
-  <si>
-    <t>Pin 30</t>
-  </si>
-  <si>
-    <t>Pin 31</t>
-  </si>
-  <si>
-    <t>Pin 32</t>
-  </si>
-  <si>
-    <t>Pin Number</t>
-  </si>
-  <si>
     <t>Definition</t>
   </si>
   <si>
@@ -336,22 +246,79 @@
     <t>Battery</t>
   </si>
   <si>
-    <t>Accelerometer</t>
-  </si>
-  <si>
-    <t>SCL</t>
-  </si>
-  <si>
-    <t>SDA</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>3.3V (VDD)</t>
-  </si>
-  <si>
-    <t>VDD</t>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>15 GPIOs</t>
+  </si>
+  <si>
+    <t>PA1–PA6, PA7–PA12, PB0, PB1, PB4, PB5</t>
+  </si>
+  <si>
+    <t>Free and general-purpose</t>
+  </si>
+  <si>
+    <t>Button Wakeup</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>GPIO1</t>
+  </si>
+  <si>
+    <t>GPIO2</t>
+  </si>
+  <si>
+    <t>GPIO3</t>
+  </si>
+  <si>
+    <t>GPIO4</t>
+  </si>
+  <si>
+    <t>GPIO5</t>
+  </si>
+  <si>
+    <t>GPIO6</t>
+  </si>
+  <si>
+    <t>GPIO7</t>
+  </si>
+  <si>
+    <t>GPIO8</t>
+  </si>
+  <si>
+    <t>GPIO9</t>
+  </si>
+  <si>
+    <t>GPIO10</t>
+  </si>
+  <si>
+    <t>Battery Voltage Sense</t>
+  </si>
+  <si>
+    <t>GPIO11</t>
+  </si>
+  <si>
+    <t>Tie to GND via resistor if not using. Don't leave floating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Leave access for debugging. Don’t use as GPIO</t>
+  </si>
+  <si>
+    <t>Crystal resonator</t>
+  </si>
+  <si>
+    <t>GPIO12</t>
+  </si>
+  <si>
+    <t>GPIO13</t>
+  </si>
+  <si>
+    <t>GPIO14</t>
+  </si>
+  <si>
+    <t>GPIO15</t>
   </si>
 </sst>
 </file>
@@ -395,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -403,19 +370,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,23 +682,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G56"/>
+  <dimension ref="B2:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52:D55"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -722,451 +707,669 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="D60" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2" t="s">
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="2" t="s">
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="2" t="s">
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="2" t="s">
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="2" t="s">
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="2" t="s">
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="2" t="s">
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="2" t="s">
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="2" t="s">
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="2" t="s">
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="2" t="s">
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="2" t="s">
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D53" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D54" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D55" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D56" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>108</v>
-      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>